--- a/public/files/formato_permiso_carga_masiva.xlsx
+++ b/public/files/formato_permiso_carga_masiva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\avintech\app-anvitech\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\Anvitech - new-starsoft\app-anvitech-new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F455847-A19B-4E2A-ACCB-15EFB2C6DC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E4D21-2DA5-49DA-85AA-A7BA419A556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22590" yWindow="5130" windowWidth="21675" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>motivo</t>
   </si>
   <si>
-    <t>Example reason</t>
+    <t>Descripcion de motivo</t>
   </si>
 </sst>
 </file>
